--- a/Template4338/Template4338/bin/Debug/3.xlsx
+++ b/Template4338/Template4338/bin/Debug/3.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27504"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C85AF9-86C1-49CC-B7A3-38423638361B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\КИТ\2022-2023 учебный год\ИСРПО\Лабораторные работы\2\Импорт\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="1500" windowWidth="27240" windowHeight="14880"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="ФЛ" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,12 +22,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,66 +31,640 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Код клиетна</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="197">
+  <si>
+    <t>Фролов Андрей Иванович</t>
+  </si>
+  <si>
+    <t>Николаев Даниил Всеволодович</t>
+  </si>
+  <si>
+    <t>Снегирев Макар Иванович</t>
+  </si>
+  <si>
+    <t>Иванов Иван Ильич</t>
+  </si>
+  <si>
+    <t>Филиппова Анна Глебовна</t>
+  </si>
+  <si>
+    <t>Иванов Михаил Владимирович</t>
+  </si>
+  <si>
+    <t>Власов Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>Серова Екатерина Львовна</t>
+  </si>
+  <si>
+    <t>Борисова Ирина Ивановна</t>
+  </si>
+  <si>
+    <t>Зайцев Никита Артёмович</t>
+  </si>
+  <si>
+    <t>Медведев Святослав Евгеньевич</t>
+  </si>
+  <si>
+    <t>Коротков Кирилл Алексеевич</t>
+  </si>
+  <si>
+    <t>Калашникова Арина Максимовна</t>
+  </si>
+  <si>
+    <t>Минина Таисия Кирилловна</t>
+  </si>
+  <si>
+    <t>Наумов Серафим Романович</t>
+  </si>
+  <si>
+    <t>Воробьева Василиса Евгеньевна</t>
+  </si>
+  <si>
+    <t>Калинин Александр Андреевич</t>
+  </si>
+  <si>
+    <t>Кузнецова Милана Владиславовна</t>
+  </si>
+  <si>
+    <t>Фирсов Егор Романович</t>
+  </si>
+  <si>
+    <t>Зимина Агния Александровна</t>
+  </si>
+  <si>
+    <t>Титов Андрей Глебович</t>
+  </si>
+  <si>
+    <t>Орлов Николай Егорович</t>
+  </si>
+  <si>
+    <t>Кузнецова Аиша Михайловна</t>
+  </si>
+  <si>
+    <t>Куликов Никита Георгиевич</t>
+  </si>
+  <si>
+    <t>Карпова София Егоровна</t>
+  </si>
+  <si>
+    <t>Смирнова Дарья Макаровна</t>
+  </si>
+  <si>
+    <t>Абрамова Александра Мироновна</t>
+  </si>
+  <si>
+    <t>Наумов Руслан Михайлович</t>
+  </si>
+  <si>
+    <t>Бочаров Никита Матвеевич</t>
+  </si>
+  <si>
+    <t>Соловьев Давид Ильич</t>
+  </si>
+  <si>
+    <t>Васильева Валерия Дмитриевна</t>
+  </si>
+  <si>
+    <t>Макарова Василиса Андреевна</t>
+  </si>
+  <si>
+    <t>Алексеев Матвей Викторович</t>
+  </si>
+  <si>
+    <t>Никитина Полина Александровна</t>
+  </si>
+  <si>
+    <t>Окулова Олеся Алексеевна</t>
+  </si>
+  <si>
+    <t>Захарова Полина Яновна</t>
+  </si>
+  <si>
+    <t>Зайцев Владимир Давидович</t>
+  </si>
+  <si>
+    <t>Иванов Виталий Даниилович</t>
+  </si>
+  <si>
+    <t>Захаров Матвей Романович</t>
+  </si>
+  <si>
+    <t>Иванов Степан Степанович</t>
+  </si>
+  <si>
+    <t>Ткачева Милана Тимуровна</t>
+  </si>
+  <si>
+    <t>Семенов Даниил Иванович</t>
+  </si>
+  <si>
+    <t>Виноградов Вячеслав Дмитриевич</t>
+  </si>
+  <si>
+    <t>Соболева Николь Фёдоровна</t>
+  </si>
+  <si>
+    <t>Тихонова Анна Львовна</t>
+  </si>
+  <si>
+    <t>Кузнецова Ульяна Савельевна</t>
+  </si>
+  <si>
+    <t>Смирнова Анна Германовна</t>
+  </si>
+  <si>
+    <t>Черепанова Анна Давидовна</t>
+  </si>
+  <si>
+    <t>Григорьев Максим Кириллович</t>
+  </si>
+  <si>
+    <t>Голубев Даниэль Александрович</t>
+  </si>
+  <si>
+    <t>Миронов Юрий Денисович</t>
+  </si>
+  <si>
+    <t>Терехов Михаил Андреевич</t>
+  </si>
+  <si>
+    <t>Орлова Алиса Михайловна</t>
+  </si>
+  <si>
+    <t>Кулаков Константин Даниилович</t>
+  </si>
+  <si>
+    <t>Кудрявцев Максим Романович</t>
+  </si>
+  <si>
+    <t>Соболева Кира Фёдоровна</t>
+  </si>
+  <si>
+    <t>Коновалов Арсений Максимович</t>
+  </si>
+  <si>
+    <t>Гусев Михаил Дмитриевич</t>
+  </si>
+  <si>
+    <t>Суханова Варвара Матвеевна</t>
+  </si>
+  <si>
+    <t>Орлова Ясмина Васильевна</t>
+  </si>
+  <si>
+    <t>Васильева Ксения Константиновна</t>
+  </si>
+  <si>
+    <t>Борисова Тамара Данииловна</t>
+  </si>
+  <si>
+    <t>Дмитриев Мирон Ильич</t>
+  </si>
+  <si>
+    <t>Лебедева Анна Александровна</t>
+  </si>
+  <si>
+    <t>Пономарев Артём Маркович</t>
+  </si>
+  <si>
+    <t>Борисова Елена Михайловна</t>
+  </si>
+  <si>
+    <t>Моисеев Камиль Максимович</t>
+  </si>
+  <si>
+    <t>Герасимова Дарья Константиновна</t>
+  </si>
+  <si>
+    <t>Михайлова Мария Марковна</t>
+  </si>
+  <si>
+    <t>Коршунов Кирилл Максимович</t>
   </si>
   <si>
     <t>ФИО</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Беспалов Илья Кириллович</t>
-  </si>
-  <si>
-    <t>example1@mail.com</t>
-  </si>
-  <si>
-    <t>Журавлёв Арнольд Николаевич</t>
-  </si>
-  <si>
-    <t>example2@mail.com</t>
-  </si>
-  <si>
-    <t>Соколов Назарий Геласьевич</t>
-  </si>
-  <si>
-    <t>example3@mail.com</t>
-  </si>
-  <si>
-    <t>Фомин Семен Викторович</t>
-  </si>
-  <si>
-    <t>example4@mail.com</t>
-  </si>
-  <si>
-    <t>Шилов Богдан Арсеньевич</t>
-  </si>
-  <si>
-    <t>example5@mail.com</t>
+    <t>Код клиента</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>gohufreilagrau-3818@yopmail.com</t>
+  </si>
+  <si>
+    <t>xawugosune-1385@yopmail.com</t>
+  </si>
+  <si>
+    <t>satrahuddusei-4458@yopmail.com</t>
+  </si>
+  <si>
+    <t>boippaxeufrepra-7093@yopmail.com</t>
+  </si>
+  <si>
+    <t>zapramaxesu-7741@yopmail.com</t>
+  </si>
+  <si>
+    <t>rouzecroummegre-3899@yopmail.com</t>
+  </si>
+  <si>
+    <t>ziyeuddocrabri-4748@yopmail.com</t>
+  </si>
+  <si>
+    <t>ketameissoinnei-1951@yopmail.com</t>
+  </si>
+  <si>
+    <t>yipraubaponou-5849@yopmail.com</t>
+  </si>
+  <si>
+    <t>crapedocouca-3572@yopmail.com</t>
+  </si>
+  <si>
+    <t>ceigoixakaunni-9227@yopmail.com</t>
+  </si>
+  <si>
+    <t>yeimmeiwauzomo-7054@yopmail.com</t>
+  </si>
+  <si>
+    <t>poleifenevi-1560@yopmail.com</t>
+  </si>
+  <si>
+    <t>kauprezofautei-6607@yopmail.com</t>
+  </si>
+  <si>
+    <t>quaffaullelourei-1667@yopmail.com</t>
+  </si>
+  <si>
+    <t>jsteele@rojas-robinson.net</t>
+  </si>
+  <si>
+    <t>vhopkins@lewis-mullen.com</t>
+  </si>
+  <si>
+    <t>nlewis@yahoo.com</t>
+  </si>
+  <si>
+    <t>garciadavid@mckinney-mcbride.com</t>
+  </si>
+  <si>
+    <t>cbradley@castro.com</t>
+  </si>
+  <si>
+    <t>cuevascatherine@carlson.biz</t>
+  </si>
+  <si>
+    <t>thomasmoore@wilson-singh.net</t>
+  </si>
+  <si>
+    <t>jessica84@hotmail.com</t>
+  </si>
+  <si>
+    <t>jessicapark@hotmail.com</t>
+  </si>
+  <si>
+    <t>ginaritter@schneider-buchanan.com</t>
+  </si>
+  <si>
+    <t>stephen99@yahoo.com</t>
+  </si>
+  <si>
+    <t>lopezlisa@hotmail.com</t>
+  </si>
+  <si>
+    <t>lori17@hotmail.com</t>
+  </si>
+  <si>
+    <t>campbellkevin@gardner.com</t>
+  </si>
+  <si>
+    <t>morganhoward@clark.com</t>
+  </si>
+  <si>
+    <t>carsontamara@gmail.com</t>
+  </si>
+  <si>
+    <t>kevinpatel@gmail.com</t>
+  </si>
+  <si>
+    <t>sethbishop@yahoo.com</t>
+  </si>
+  <si>
+    <t>drollins@schultz-soto.net</t>
+  </si>
+  <si>
+    <t>pblack@copeland-winters.org</t>
+  </si>
+  <si>
+    <t>johnathon.oberbrunner@yahoo.com</t>
+  </si>
+  <si>
+    <t>bradly29@gmail.com</t>
+  </si>
+  <si>
+    <t>stark.cristina@hilpert.biz</t>
+  </si>
+  <si>
+    <t>bruen.eleanore@yahoo.com</t>
+  </si>
+  <si>
+    <t>percival.halvorson@yahoo.com</t>
+  </si>
+  <si>
+    <t>javonte71@kuhlman.biz</t>
+  </si>
+  <si>
+    <t>vconnelly@kautzer.com</t>
+  </si>
+  <si>
+    <t>nitzsche.katlynn@yahoo.com</t>
+  </si>
+  <si>
+    <t>anabelle07@schultz.info</t>
+  </si>
+  <si>
+    <t>corine16@von.com</t>
+  </si>
+  <si>
+    <t>may.kirlin@hotmail.com</t>
+  </si>
+  <si>
+    <t>otha.wisozk@lubowitz.org</t>
+  </si>
+  <si>
+    <t>bryana.kautzer@yahoo.com</t>
+  </si>
+  <si>
+    <t>connelly.makayla@yahoo.com</t>
+  </si>
+  <si>
+    <t>deborah.christiansen@quigley.biz</t>
+  </si>
+  <si>
+    <t>tatum.collins@fay.org</t>
+  </si>
+  <si>
+    <t>arjun39@hotmail.com</t>
+  </si>
+  <si>
+    <t>itzel73@anderson.com</t>
+  </si>
+  <si>
+    <t>ohara.rebeka@yahoo.com</t>
+  </si>
+  <si>
+    <t>janae.bogan@gmail.com</t>
+  </si>
+  <si>
+    <t>danika58@rath.com</t>
+  </si>
+  <si>
+    <t>vern91@yahoo.com</t>
+  </si>
+  <si>
+    <t>vmoore@gmail.com</t>
+  </si>
+  <si>
+    <t>mariana.leannon@larkin.net</t>
+  </si>
+  <si>
+    <t>damon.mcclure@mills.com</t>
+  </si>
+  <si>
+    <t>boyd.koss@yahoo.com</t>
+  </si>
+  <si>
+    <t>grady.reilly@block.com</t>
+  </si>
+  <si>
+    <t>obartell@franecki.info</t>
+  </si>
+  <si>
+    <t>karson28@hotmail.com</t>
+  </si>
+  <si>
+    <t>reina75@ferry.net</t>
+  </si>
+  <si>
+    <t>damaris61@okon.com</t>
+  </si>
+  <si>
+    <t>carroll.jerod@hotmail.com</t>
+  </si>
+  <si>
+    <t>ron.treutel@quitzon.com</t>
+  </si>
+  <si>
+    <t>olen79@yahoo.com</t>
+  </si>
+  <si>
+    <t>pacocha.robbie@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> г. Нальчик</t>
+  </si>
+  <si>
+    <t>Индекс</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>Улица</t>
+  </si>
+  <si>
+    <t>Дом</t>
+  </si>
+  <si>
+    <t>Квартира</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Чехова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Степная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Коммунистическая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Солнечная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шоссейная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Партизанская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Победы</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Молодежная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Новая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Октябрьская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Садовая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Комсомольская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дзержинского</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Набережная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фрунзе</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Школьная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 Марта</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зеленая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Маяковского</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Светлая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Цветочная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спортивная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гоголя</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Северная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вишневая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Подгорная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Полевая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Клубная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Некрасова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мичурина</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Парковая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дорожная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Первомайская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Красноармейская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Чкалова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Заводская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Больничная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гагарина</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вокзальная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Западная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Механизаторов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Свердлова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Матросова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Красная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дачная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нагорная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Весенняя</t>
+  </si>
+  <si>
+    <t>E-mail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF797979"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,7 +675,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,21 +683,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -136,9 +747,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,39 +757,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="145F82"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E87331"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="186C24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -230,7 +841,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -282,7 +893,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,6 +952,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -349,13 +967,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -420,27 +1031,7 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -451,97 +1042,2089 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3">
+        <v>45462526</v>
+      </c>
+      <c r="C2" s="4">
+        <v>37086</v>
+      </c>
+      <c r="D2" s="3">
+        <v>344288</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H2" s="8">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45462527</v>
+      </c>
+      <c r="C3" s="4">
+        <v>36932</v>
+      </c>
+      <c r="D3" s="3">
+        <v>614164</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="8">
+        <v>30</v>
+      </c>
+      <c r="H3" s="8">
+        <v>75</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="B4" s="3">
+        <v>45462528</v>
+      </c>
+      <c r="C4" s="4">
+        <v>35936</v>
+      </c>
+      <c r="D4" s="3">
+        <v>394242</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="8">
+        <v>43</v>
+      </c>
+      <c r="H4" s="8">
+        <v>57</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45462529</v>
+      </c>
+      <c r="C5" s="4">
+        <v>36069</v>
+      </c>
+      <c r="D5" s="3">
+        <v>660540</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="8">
+        <v>25</v>
+      </c>
+      <c r="H5" s="8">
+        <v>78</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45462530</v>
+      </c>
+      <c r="C6" s="4">
+        <v>27911</v>
+      </c>
+      <c r="D6" s="3">
+        <v>125837</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="8">
+        <v>40</v>
+      </c>
+      <c r="H6" s="8">
+        <v>92</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45462531</v>
+      </c>
+      <c r="C7" s="4">
+        <v>31355</v>
+      </c>
+      <c r="D7" s="3">
+        <v>125703</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="8">
+        <v>49</v>
+      </c>
+      <c r="H7" s="8">
+        <v>84</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45462532</v>
+      </c>
+      <c r="C8" s="4">
+        <v>36024</v>
+      </c>
+      <c r="D8" s="3">
+        <v>625283</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="8">
+        <v>46</v>
+      </c>
+      <c r="H8" s="8">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45462533</v>
+      </c>
+      <c r="C9" s="4">
+        <v>30979</v>
+      </c>
+      <c r="D9" s="3">
+        <v>614611</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="8">
+        <v>50</v>
+      </c>
+      <c r="H9" s="8">
+        <v>78</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45462534</v>
+      </c>
+      <c r="C10" s="4">
+        <v>28047</v>
+      </c>
+      <c r="D10" s="3">
+        <v>454311</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="8">
+        <v>19</v>
+      </c>
+      <c r="H10" s="8">
+        <v>78</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45462535</v>
+      </c>
+      <c r="C11" s="4">
+        <v>36447</v>
+      </c>
+      <c r="D11" s="3">
+        <v>660007</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="8">
+        <v>19</v>
+      </c>
+      <c r="H11" s="8">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45462536</v>
+      </c>
+      <c r="C12" s="4">
+        <v>31241</v>
+      </c>
+      <c r="D12" s="3">
+        <v>603036</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4</v>
+      </c>
+      <c r="H12" s="8">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45462537</v>
+      </c>
+      <c r="C13" s="4">
+        <v>27906</v>
+      </c>
+      <c r="D13" s="3">
+        <v>450983</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="8">
+        <v>26</v>
+      </c>
+      <c r="H13" s="8">
+        <v>60</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45462538</v>
+      </c>
+      <c r="C14" s="4">
+        <v>36385</v>
+      </c>
+      <c r="D14" s="3">
+        <v>394782</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="8">
+        <v>3</v>
+      </c>
+      <c r="H14" s="8">
+        <v>14</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45462539</v>
+      </c>
+      <c r="C15" s="4">
+        <v>31333</v>
+      </c>
+      <c r="D15" s="3">
+        <v>603002</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="8">
+        <v>28</v>
+      </c>
+      <c r="H15" s="8">
+        <v>56</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45462540</v>
+      </c>
+      <c r="C16" s="4">
+        <v>36265</v>
+      </c>
+      <c r="D16" s="3">
+        <v>450558</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="8">
+        <v>30</v>
+      </c>
+      <c r="H16" s="8">
+        <v>71</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45462541</v>
+      </c>
+      <c r="C17" s="4">
+        <v>36173</v>
+      </c>
+      <c r="D17" s="3">
+        <v>394060</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="8">
+        <v>43</v>
+      </c>
+      <c r="H17" s="8">
+        <v>79</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45462542</v>
+      </c>
+      <c r="C18" s="4">
+        <v>36167</v>
+      </c>
+      <c r="D18" s="3">
+        <v>410661</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="8">
+        <v>50</v>
+      </c>
+      <c r="H18" s="8">
+        <v>53</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45462543</v>
+      </c>
+      <c r="C19" s="4">
+        <v>36184</v>
+      </c>
+      <c r="D19" s="3">
+        <v>625590</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="8">
+        <v>20</v>
+      </c>
+      <c r="H19" s="8">
+        <v>34</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45462544</v>
+      </c>
+      <c r="C20" s="4">
+        <v>34214</v>
+      </c>
+      <c r="D20" s="3">
+        <v>625683</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="8">
+        <v>20</v>
+      </c>
+      <c r="H20" s="8">
+        <v>21</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45462545</v>
+      </c>
+      <c r="C21" s="4">
+        <v>36041</v>
+      </c>
+      <c r="D21" s="3">
+        <v>400562</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="8">
+        <v>32</v>
+      </c>
+      <c r="H21" s="8">
+        <v>67</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45462546</v>
+      </c>
+      <c r="C22" s="4">
+        <v>31343</v>
+      </c>
+      <c r="D22" s="3">
+        <v>614510</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="8">
+        <v>47</v>
+      </c>
+      <c r="H22" s="8">
+        <v>72</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45462547</v>
+      </c>
+      <c r="C23" s="4">
+        <v>31255</v>
+      </c>
+      <c r="D23" s="3">
+        <v>410542</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="8">
+        <v>46</v>
+      </c>
+      <c r="H23" s="8">
+        <v>82</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45462548</v>
+      </c>
+      <c r="C24" s="4">
+        <v>36072</v>
+      </c>
+      <c r="D24" s="3">
+        <v>620839</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="8">
+        <v>8</v>
+      </c>
+      <c r="H24" s="8">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45462549</v>
+      </c>
+      <c r="C25" s="4">
+        <v>36273</v>
+      </c>
+      <c r="D25" s="3">
+        <v>443890</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="8">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H25" s="8">
+        <v>10</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45462550</v>
+      </c>
+      <c r="C26" s="4">
+        <v>34243</v>
+      </c>
+      <c r="D26" s="3">
+        <v>603379</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="8">
+        <v>46</v>
+      </c>
+      <c r="H26" s="8">
+        <v>95</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45462551</v>
+      </c>
+      <c r="C27" s="4">
+        <v>27841</v>
+      </c>
+      <c r="D27" s="3">
+        <v>603721</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="8">
+        <v>41</v>
+      </c>
+      <c r="H27" s="8">
+        <v>57</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45462552</v>
+      </c>
+      <c r="C28" s="4">
+        <v>36245</v>
+      </c>
+      <c r="D28" s="3">
+        <v>410172</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="8">
+        <v>13</v>
+      </c>
+      <c r="H28" s="8">
+        <v>86</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45462553</v>
+      </c>
+      <c r="C29" s="4">
+        <v>36444</v>
+      </c>
+      <c r="D29" s="3">
+        <v>420151</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="8">
+        <v>32</v>
+      </c>
+      <c r="H29" s="8">
+        <v>81</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45462554</v>
+      </c>
+      <c r="C30" s="4">
+        <v>35610</v>
+      </c>
+      <c r="D30" s="3">
+        <v>125061</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="8">
+        <v>8</v>
+      </c>
+      <c r="H30" s="8">
+        <v>74</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45462555</v>
+      </c>
+      <c r="C31" s="4">
+        <v>30747</v>
+      </c>
+      <c r="D31" s="3">
+        <v>630370</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="8">
+        <v>24</v>
+      </c>
+      <c r="H31" s="8">
+        <v>81</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45462556</v>
+      </c>
+      <c r="C32" s="4">
+        <v>36433</v>
+      </c>
+      <c r="D32" s="3">
+        <v>614753</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="8">
+        <v>35</v>
+      </c>
+      <c r="H32" s="8">
+        <v>39</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45462557</v>
+      </c>
+      <c r="C33" s="4">
+        <v>36258</v>
+      </c>
+      <c r="D33" s="3">
+        <v>426030</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="8">
+        <v>44</v>
+      </c>
+      <c r="H33" s="8">
+        <v>93</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45462558</v>
+      </c>
+      <c r="C34" s="4">
+        <v>36009</v>
+      </c>
+      <c r="D34" s="3">
+        <v>450375</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="8">
+        <v>44</v>
+      </c>
+      <c r="H34" s="8">
+        <v>80</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45462559</v>
+      </c>
+      <c r="C35" s="4">
+        <v>28022</v>
+      </c>
+      <c r="D35" s="3">
+        <v>625560</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="8">
+        <v>12</v>
+      </c>
+      <c r="H35" s="8">
+        <v>66</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45462560</v>
+      </c>
+      <c r="C36" s="4">
+        <v>36253</v>
+      </c>
+      <c r="D36" s="3">
+        <v>630201</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="8">
+        <v>17</v>
+      </c>
+      <c r="H36" s="8">
+        <v>25</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45462561</v>
+      </c>
+      <c r="C37" s="4">
+        <v>27871</v>
+      </c>
+      <c r="D37" s="3">
+        <v>190949</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="8">
+        <v>26</v>
+      </c>
+      <c r="H37" s="8">
+        <v>93</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45462562</v>
+      </c>
+      <c r="C38" s="4">
+        <v>35821</v>
+      </c>
+      <c r="D38" s="3">
+        <v>350501</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="8">
+        <v>2</v>
+      </c>
+      <c r="H38" s="8">
+        <v>7</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45462563</v>
+      </c>
+      <c r="C39" s="4">
+        <v>27983</v>
+      </c>
+      <c r="D39" s="3">
+        <v>450048</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="8">
+        <v>21</v>
+      </c>
+      <c r="H39" s="8">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="I39" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45462564</v>
+      </c>
+      <c r="C40" s="4">
+        <v>34162</v>
+      </c>
+      <c r="D40" s="3">
+        <v>644921</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="8">
+        <v>46</v>
+      </c>
+      <c r="H40" s="8">
+        <v>37</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45462565</v>
+      </c>
+      <c r="C41" s="4">
+        <v>36057</v>
+      </c>
+      <c r="D41" s="3">
+        <v>614228</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="8">
+        <v>36</v>
+      </c>
+      <c r="H41" s="8">
+        <v>54</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>45462566</v>
+      </c>
+      <c r="C42" s="4">
+        <v>35939</v>
+      </c>
+      <c r="D42" s="3">
+        <v>350940</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" s="8">
+        <v>23</v>
+      </c>
+      <c r="H42" s="8">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="I42" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45462567</v>
+      </c>
+      <c r="C43" s="4">
+        <v>27763</v>
+      </c>
+      <c r="D43" s="3">
+        <v>344990</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" s="8">
+        <v>19</v>
+      </c>
+      <c r="H43" s="8">
+        <v>92</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45462568</v>
+      </c>
+      <c r="C44" s="4">
+        <v>27953</v>
+      </c>
+      <c r="D44" s="3">
+        <v>410248</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G44" s="8">
+        <v>11</v>
+      </c>
+      <c r="H44" s="8">
+        <v>75</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45462569</v>
+      </c>
+      <c r="C45" s="4">
+        <v>27882</v>
+      </c>
+      <c r="D45" s="3">
+        <v>400839</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" s="8">
+        <v>46</v>
+      </c>
+      <c r="H45" s="8">
+        <v>44</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45462570</v>
+      </c>
+      <c r="C46" s="4">
+        <v>31129</v>
+      </c>
+      <c r="D46" s="3">
+        <v>450539</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="8">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H46" s="8">
+        <v>81</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45462571</v>
+      </c>
+      <c r="C47" s="4">
+        <v>36314</v>
+      </c>
+      <c r="D47" s="3">
+        <v>614591</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="8">
+        <v>20</v>
+      </c>
+      <c r="H47" s="8">
+        <v>40</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45462572</v>
+      </c>
+      <c r="C48" s="4">
+        <v>35629</v>
+      </c>
+      <c r="D48" s="3">
+        <v>400260</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G48" s="8">
+        <v>30</v>
+      </c>
+      <c r="H48" s="8">
+        <v>53</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>45462573</v>
+      </c>
+      <c r="C49" s="4">
+        <v>31357</v>
+      </c>
+      <c r="D49" s="3">
+        <v>660924</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G49" s="8">
+        <v>32</v>
+      </c>
+      <c r="H49" s="8">
+        <v>59</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>45462574</v>
+      </c>
+      <c r="C50" s="4">
+        <v>36306</v>
+      </c>
+      <c r="D50" s="3">
+        <v>644133</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G50" s="8">
+        <v>28</v>
+      </c>
+      <c r="H50" s="8">
+        <v>69</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45462575</v>
+      </c>
+      <c r="C51" s="4">
+        <v>36325</v>
+      </c>
+      <c r="D51" s="3">
+        <v>450698</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G51" s="8">
+        <v>14</v>
+      </c>
+      <c r="H51" s="8">
+        <v>37</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>45462576</v>
+      </c>
+      <c r="C52" s="4">
+        <v>31073</v>
+      </c>
+      <c r="D52" s="3">
+        <v>620653</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52" s="8">
+        <v>15</v>
+      </c>
+      <c r="H52" s="8">
+        <v>25</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <v>45462577</v>
+      </c>
+      <c r="C53" s="4">
+        <v>27947</v>
+      </c>
+      <c r="D53" s="3">
+        <v>644321</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" s="8">
+        <v>32</v>
+      </c>
+      <c r="H53" s="8">
+        <v>10</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>45462578</v>
+      </c>
+      <c r="C54" s="4">
+        <v>35485</v>
+      </c>
+      <c r="D54" s="3">
+        <v>603653</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="8">
+        <v>2</v>
+      </c>
+      <c r="H54" s="8">
+        <v>45</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <v>45462579</v>
+      </c>
+      <c r="C55" s="4">
+        <v>34140</v>
+      </c>
+      <c r="D55" s="3">
+        <v>410181</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G55" s="8">
+        <v>16</v>
+      </c>
+      <c r="H55" s="8">
+        <v>74</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>45462580</v>
+      </c>
+      <c r="C56" s="4">
+        <v>35925</v>
+      </c>
+      <c r="D56" s="3">
+        <v>394207</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G56" s="8">
+        <v>31</v>
+      </c>
+      <c r="H56" s="8">
+        <v>28</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <v>45462581</v>
+      </c>
+      <c r="C57" s="4">
+        <v>35868</v>
+      </c>
+      <c r="D57" s="3">
+        <v>420633</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G57" s="8">
+        <v>18</v>
+      </c>
+      <c r="H57" s="8">
+        <v>41</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>45462582</v>
+      </c>
+      <c r="C58" s="4">
+        <v>31096</v>
+      </c>
+      <c r="D58" s="3">
+        <v>445720</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="8">
+        <v>50</v>
+      </c>
+      <c r="H58" s="8">
+        <v>67</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <v>45462583</v>
+      </c>
+      <c r="C59" s="4">
+        <v>36487</v>
+      </c>
+      <c r="D59" s="3">
+        <v>400646</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" s="8">
+        <v>47</v>
+      </c>
+      <c r="H59" s="8">
+        <v>65</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>45462584</v>
+      </c>
+      <c r="C60" s="4">
+        <v>34225</v>
+      </c>
+      <c r="D60" s="3">
+        <v>644410</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G60" s="8">
+        <v>17</v>
+      </c>
+      <c r="H60" s="8">
+        <v>69</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>45462585</v>
+      </c>
+      <c r="C61" s="4">
+        <v>30857</v>
+      </c>
+      <c r="D61" s="3">
+        <v>400750</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61" s="8">
+        <v>36</v>
+      </c>
+      <c r="H61" s="8">
+        <v>71</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>45462586</v>
+      </c>
+      <c r="C62" s="4">
+        <v>36373</v>
+      </c>
+      <c r="D62" s="3">
+        <v>660590</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G62" s="8">
+        <v>37</v>
+      </c>
+      <c r="H62" s="8">
+        <v>70</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3">
+        <v>45462587</v>
+      </c>
+      <c r="C63" s="4">
+        <v>34118</v>
+      </c>
+      <c r="D63" s="3">
+        <v>426083</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G63" s="8">
+        <v>41</v>
+      </c>
+      <c r="H63" s="8">
+        <v>26</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>45462588</v>
+      </c>
+      <c r="C64" s="4">
+        <v>31150</v>
+      </c>
+      <c r="D64" s="3">
+        <v>410569</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G64" s="8">
+        <v>36</v>
+      </c>
+      <c r="H64" s="8">
+        <v>17</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3">
+        <v>45462589</v>
+      </c>
+      <c r="C65" s="4">
+        <v>31136</v>
+      </c>
+      <c r="D65" s="3">
+        <v>443375</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" s="8">
+        <v>50</v>
+      </c>
+      <c r="H65" s="8">
+        <v>95</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>45462590</v>
+      </c>
+      <c r="C66" s="4">
+        <v>30835</v>
+      </c>
+      <c r="D66" s="3">
+        <v>614316</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G66" s="8">
+        <v>48</v>
+      </c>
+      <c r="H66" s="8">
+        <v>31</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <v>45462591</v>
+      </c>
+      <c r="C67" s="4">
+        <v>27903</v>
+      </c>
+      <c r="D67" s="3">
+        <v>445685</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G67" s="8">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H67" s="8">
+        <v>47</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>45462592</v>
+      </c>
+      <c r="C68" s="4">
+        <v>36328</v>
+      </c>
+      <c r="D68" s="3">
+        <v>614505</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G68" s="8">
+        <v>37</v>
+      </c>
+      <c r="H68" s="8">
+        <v>31</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3">
+        <v>45462593</v>
+      </c>
+      <c r="C69" s="4">
+        <v>30968</v>
+      </c>
+      <c r="D69" s="3">
+        <v>426629</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G69" s="8">
+        <v>32</v>
+      </c>
+      <c r="H69" s="8">
+        <v>46</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>45462594</v>
+      </c>
+      <c r="C70" s="4">
+        <v>28096</v>
+      </c>
+      <c r="D70" s="3">
+        <v>603743</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G70" s="8">
+        <v>19</v>
+      </c>
+      <c r="H70" s="8">
+        <v>20</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <v>45462595</v>
+      </c>
+      <c r="C71" s="4">
+        <v>31189</v>
+      </c>
+      <c r="D71" s="3">
+        <v>450750</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G71" s="8">
+        <v>23</v>
+      </c>
+      <c r="H71" s="8">
+        <v>90</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="I74" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C6">
-    <sortCondition ref="C2:C6"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{7BB41A30-687C-4AA4-AF18-C051057562FF}"/>
-    <hyperlink ref="C3:C6" r:id="rId2" display="example1@mail.com" xr:uid="{BA515F69-23B7-4CA6-8112-79C5C36586E5}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{A7A63B97-21D0-44C0-9F44-AE441D17CF1A}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{32BB6B99-6318-4A67-AC9F-D66A0D9F01C6}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{C691F289-92D0-4DBD-BCE5-F88045DF1468}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>